--- a/data/balloon_concentration.xlsx
+++ b/data/balloon_concentration.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/talasse1/PycharmProjects/gase_calculation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GaseCalculator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0688E489-3F2D-FC4E-AF8F-3501B1D8FB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="25605" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>MPVPosition</t>
   </si>
@@ -34,43 +33,49 @@
     <t>5.0</t>
   </si>
   <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>For calibration</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
     <t>7.0</t>
   </si>
   <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>Arseniy</t>
-  </si>
-  <si>
-    <t>NN2</t>
-  </si>
-  <si>
-    <t>aes057</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>For calibration</t>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>SPB</t>
+  </si>
+  <si>
+    <t>D972714</t>
+  </si>
+  <si>
+    <t>D972715</t>
+  </si>
+  <si>
+    <t>OAN027</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -125,7 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -424,28 +429,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D383DAA0-FC20-9442-B22D-7BE4B83CDF51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -454,18 +459,18 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>376.16</v>
+        <v>376.34</v>
       </c>
       <c r="D2" s="3">
         <v>1.9195</v>
@@ -474,63 +479,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3">
-        <v>453.39</v>
+        <v>461.25</v>
       </c>
       <c r="D3" s="3">
-        <v>2.1122299999999998</v>
+        <v>1.7974000000000001</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2032</v>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -542,12 +547,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1032</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>

--- a/data/balloon_concentration.xlsx
+++ b/data/balloon_concentration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GaseCalculator\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GaseCalculator — копия\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>MPVPosition</t>
   </si>
@@ -30,46 +30,34 @@
     <t>CH4+</t>
   </si>
   <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>For calibration</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
   </si>
   <si>
     <t>3.0</t>
   </si>
   <si>
+    <t>AES057</t>
+  </si>
+  <si>
+    <t>D972715</t>
+  </si>
+  <si>
     <t>6.0</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>For calibration</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>N3</t>
-  </si>
-  <si>
     <t>8.0</t>
   </si>
   <si>
-    <t>SPB</t>
-  </si>
-  <si>
-    <t>D972714</t>
-  </si>
-  <si>
-    <t>D972715</t>
-  </si>
-  <si>
-    <t>OAN027</t>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -123,11 +111,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -430,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -459,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -467,13 +456,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>376.34</v>
+        <v>406.63</v>
       </c>
       <c r="D2" s="3">
-        <v>1.9195</v>
+        <v>1.9854499999999999</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -481,16 +470,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>461.25</v>
+        <v>437.8</v>
       </c>
       <c r="D3" s="3">
-        <v>1.7974000000000001</v>
+        <v>2.2732600000000001</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -498,10 +487,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -509,33 +498,31 @@
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -543,25 +530,8 @@
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/balloon_concentration.xlsx
+++ b/data/balloon_concentration.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>MPVPosition</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>8.0</t>
-  </si>
-  <si>
-    <t>f</t>
   </si>
 </sst>
 </file>
@@ -422,7 +419,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,9 +510,7 @@
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -530,9 +525,7 @@
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="E6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
